--- a/Spherical conversions.xlsx
+++ b/Spherical conversions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="{A7D69E28-9E60-4AED-97DD-FE647EB039B9}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="{A7D69E28-9E60-4AED-97DD-FE647EB039B9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr" xr:uid="{49B971A4-C452-45EB-9755-0FD35E979913}">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57:J64"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64:N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -369,7 +369,7 @@
     <col min="5" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>3</v>
       </c>
@@ -2830,8 +2830,27 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>63</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K113" si="5">ROUND((-1 + SQRT(1 + 4 * N65)) / 2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65:L113" si="6">N65-K65*(K65+1)</f>
+        <v>-3</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:M113" si="7">MOD(J65,7)-$B$2</f>
+        <v>-3</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65:N113" si="8">ROUNDDOWN(J65/(2*$B$2+1),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>3</v>
       </c>
@@ -2849,8 +2868,27 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>64</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>3</v>
       </c>
@@ -2861,15 +2899,34 @@
         <v>-1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G113" si="5">D67*(D67+1)+E67</f>
+        <f t="shared" ref="G67:G113" si="9">D67*(D67+1)+E67</f>
         <v>9</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H113" si="6">(D67*(D67+1)+E67)*(2*$B$2+1)+F67+$B$2</f>
+        <f t="shared" ref="H67:H113" si="10">(D67*(D67+1)+E67)*(2*$B$2+1)+F67+$B$2</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>65</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>3</v>
       </c>
@@ -2880,15 +2937,34 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>66</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>3</v>
       </c>
@@ -2899,15 +2975,34 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>67</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D70">
         <v>3</v>
       </c>
@@ -2918,15 +3013,34 @@
         <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>68</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>3</v>
       </c>
@@ -2937,15 +3051,34 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>69</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D72">
         <v>3</v>
       </c>
@@ -2956,15 +3089,34 @@
         <v>-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>70</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>3</v>
       </c>
@@ -2975,15 +3127,34 @@
         <v>-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>71</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>3</v>
       </c>
@@ -2994,15 +3165,34 @@
         <v>-1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>72</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D75">
         <v>3</v>
       </c>
@@ -3013,15 +3203,34 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>73</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D76">
         <v>3</v>
       </c>
@@ -3032,15 +3241,34 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>74</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D77">
         <v>3</v>
       </c>
@@ -3051,15 +3279,34 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>75</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D78">
         <v>3</v>
       </c>
@@ -3070,15 +3317,34 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>76</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D79">
         <v>3</v>
       </c>
@@ -3089,15 +3355,34 @@
         <v>-3</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D80">
         <v>3</v>
       </c>
@@ -3108,15 +3393,34 @@
         <v>-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>78</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D81">
         <v>3</v>
       </c>
@@ -3127,15 +3431,34 @@
         <v>-1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>79</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D82">
         <v>3</v>
       </c>
@@ -3146,15 +3469,34 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>80</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>3</v>
       </c>
@@ -3165,15 +3507,34 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>81</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>3</v>
       </c>
@@ -3184,15 +3545,34 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>82</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>3</v>
       </c>
@@ -3203,15 +3583,34 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>83</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>3</v>
       </c>
@@ -3222,15 +3621,34 @@
         <v>-3</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>84</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>3</v>
       </c>
@@ -3241,15 +3659,34 @@
         <v>-2</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>85</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D88">
         <v>3</v>
       </c>
@@ -3260,15 +3697,34 @@
         <v>-1</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>86</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D89">
         <v>3</v>
       </c>
@@ -3279,15 +3735,34 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>87</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D90">
         <v>3</v>
       </c>
@@ -3298,15 +3773,34 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>88</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>3</v>
       </c>
@@ -3317,15 +3811,34 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>89</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D92">
         <v>3</v>
       </c>
@@ -3336,15 +3849,34 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>90</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D93">
         <v>3</v>
       </c>
@@ -3355,15 +3887,34 @@
         <v>-3</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D94">
         <v>3</v>
       </c>
@@ -3374,15 +3925,34 @@
         <v>-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>92</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D95">
         <v>3</v>
       </c>
@@ -3393,15 +3963,34 @@
         <v>-1</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>93</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D96">
         <v>3</v>
       </c>
@@ -3412,15 +4001,34 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>94</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D97">
         <v>3</v>
       </c>
@@ -3431,15 +4039,34 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>95</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D98">
         <v>3</v>
       </c>
@@ -3450,15 +4077,34 @@
         <v>2</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>96</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D99">
         <v>3</v>
       </c>
@@ -3469,15 +4115,34 @@
         <v>3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>97</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D100">
         <v>3</v>
       </c>
@@ -3488,15 +4153,34 @@
         <v>-3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>98</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D101">
         <v>3</v>
       </c>
@@ -3507,15 +4191,34 @@
         <v>-2</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>99</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D102">
         <v>3</v>
       </c>
@@ -3526,15 +4229,34 @@
         <v>-1</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>100</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D103">
         <v>3</v>
       </c>
@@ -3545,15 +4267,34 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>101</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D104">
         <v>3</v>
       </c>
@@ -3564,15 +4305,34 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>102</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D105">
         <v>3</v>
       </c>
@@ -3583,15 +4343,34 @@
         <v>2</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>103</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D106">
         <v>3</v>
       </c>
@@ -3602,15 +4381,34 @@
         <v>3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>104</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D107">
         <v>3</v>
       </c>
@@ -3621,15 +4419,34 @@
         <v>-3</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>105</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D108">
         <v>3</v>
       </c>
@@ -3640,15 +4457,34 @@
         <v>-2</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>106</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D109">
         <v>3</v>
       </c>
@@ -3659,15 +4495,34 @@
         <v>-1</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>107</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D110">
         <v>3</v>
       </c>
@@ -3678,15 +4533,34 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>108</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D111">
         <v>3</v>
       </c>
@@ -3697,15 +4571,34 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>109</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D112">
         <v>3</v>
       </c>
@@ -3716,15 +4609,34 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>110</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D113">
         <v>3</v>
       </c>
@@ -3735,12 +4647,31 @@
         <v>3</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>111</v>
+      </c>
+      <c r="J113">
+        <v>111</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Spherical conversions.xlsx
+++ b/Spherical conversions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x15 xr">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
-  <xr:revisionPtr revIDLastSave="173" documentId="{A7D69E28-9E60-4AED-97DD-FE647EB039B9}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="{A7D69E28-9E60-4AED-97DD-FE647EB039B9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>L_max</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>z'</t>
+  </si>
+  <si>
+    <t>mis</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x14ac xr xr2" xr:uid="{49B971A4-C452-45EB-9755-0FD35E979913}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -378,13 +384,13 @@
     <col min="5" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -400,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -420,28 +426,34 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
       <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>0</v>
       </c>
@@ -463,34 +475,34 @@
         <f>(D4*(D4+1)+E4)*(2*$B$2+1)+F4</f>
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <f>I4-J4</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N38" si="1">ROUND((-1 + SQRT(1 + 4 * Q4)) / 2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>I4-K4</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>Q4-N4*(N4+1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <f>MOD(M4,7)-$B$2</f>
+        <f t="shared" ref="P4:P38" si="1">ROUND((-1 + SQRT(1 + 4 * S4)) / 2,0)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>ROUNDDOWN(M4/(2*$B$2+1),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S4-P4*(P4+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>MOD(O4,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>ROUNDDOWN(O4/(2*$B$2+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>1</v>
       </c>
@@ -513,33 +525,40 @@
         <v>6</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K68" si="3">I5-J5</f>
+      <c r="L5">
+        <f t="shared" ref="L5:L68" si="3">I5-K5</f>
         <v>1</v>
       </c>
       <c r="M5">
+        <f>$B$2-D5+$B$2</f>
+        <v>5</v>
+      </c>
+      <c r="O5">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O5">
-        <f>Q5-N5*(N5+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <f>MOD(M5,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q5">
-        <f>ROUNDDOWN(M5/(2*$B$2+1),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S5-P5*(P5+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <f>MOD(O5,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <f>ROUNDDOWN(O5/(2*$B$2+1),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>1</v>
       </c>
@@ -562,33 +581,40 @@
         <v>7</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M6">
+        <f t="shared" ref="M6:M13" si="4">$B$2-D6+$B$2</f>
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O6">
-        <f>Q6-N6*(N6+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P6">
-        <f>MOD(M6,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q6">
-        <f>ROUNDDOWN(M6/(2*$B$2+1),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S6-P6*(P6+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <f>MOD(O6,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>ROUNDDOWN(O6/(2*$B$2+1),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>1</v>
       </c>
@@ -611,33 +637,40 @@
         <v>8</v>
       </c>
       <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O7">
         <v>11</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O7">
-        <f>Q7-N7*(N7+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <f>MOD(M7,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q7">
-        <f>ROUNDDOWN(M7/(2*$B$2+1),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S7-P7*(P7+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <f>MOD(O7,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>ROUNDDOWN(O7/(2*$B$2+1),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1</v>
       </c>
@@ -660,33 +693,40 @@
         <v>13</v>
       </c>
       <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
         <v>16</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8">
-        <f>Q8-N8*(N8+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>MOD(M8,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q8">
-        <f>ROUNDDOWN(M8/(2*$B$2+1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S8-P8*(P8+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>MOD(O8,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <f>ROUNDDOWN(O8/(2*$B$2+1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>1</v>
       </c>
@@ -709,33 +749,40 @@
         <v>14</v>
       </c>
       <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O9">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O9">
-        <f>Q9-N9*(N9+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>MOD(M9,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q9">
-        <f>ROUNDDOWN(M9/(2*$B$2+1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S9-P9*(P9+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>MOD(O9,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>ROUNDDOWN(O9/(2*$B$2+1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1</v>
       </c>
@@ -758,33 +805,40 @@
         <v>15</v>
       </c>
       <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O10">
         <v>18</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O10">
-        <f>Q10-N10*(N10+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>MOD(M10,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q10">
-        <f>ROUNDDOWN(M10/(2*$B$2+1),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S10-P10*(P10+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>MOD(O10,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f>ROUNDDOWN(O10/(2*$B$2+1),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1</v>
       </c>
@@ -807,33 +861,40 @@
         <v>20</v>
       </c>
       <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
         <v>13</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M11">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O11">
         <v>23</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O11">
-        <f>Q11-N11*(N11+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <f>MOD(M11,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q11">
-        <f>ROUNDDOWN(M11/(2*$B$2+1),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S11-P11*(P11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>MOD(O11,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <f>ROUNDDOWN(O11/(2*$B$2+1),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1</v>
       </c>
@@ -856,33 +917,40 @@
         <v>21</v>
       </c>
       <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
         <v>13</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
         <v>24</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12">
-        <f>Q12-N12*(N12+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <f>MOD(M12,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q12">
-        <f>ROUNDDOWN(M12/(2*$B$2+1),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S12-P12*(P12+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>MOD(O12,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>ROUNDDOWN(O12/(2*$B$2+1),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>1</v>
       </c>
@@ -905,33 +973,40 @@
         <v>22</v>
       </c>
       <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M13">
-        <v>25</v>
-      </c>
-      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O13">
-        <f>Q13-N13*(N13+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f>MOD(M13,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q13">
-        <f>ROUNDDOWN(M13/(2*$B$2+1),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <f>S13-P13*(P13+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>MOD(O13,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>ROUNDDOWN(O13/(2*$B$2+1),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>2</v>
       </c>
@@ -954,33 +1029,36 @@
         <v>26</v>
       </c>
       <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
         <v>16</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>29</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O14">
-        <f>Q14-N14*(N14+1)</f>
-        <v>-2</v>
-      </c>
-      <c r="P14">
-        <f>MOD(M14,7)-$B$2</f>
-        <v>-2</v>
-      </c>
       <c r="Q14">
-        <f>ROUNDDOWN(M14/(2*$B$2+1),0)</f>
+        <f>S14-P14*(P14+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="R14">
+        <f>MOD(O14,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S14">
+        <f>ROUNDDOWN(O14/(2*$B$2+1),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>2</v>
       </c>
@@ -1003,33 +1081,36 @@
         <v>27</v>
       </c>
       <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
         <v>16</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>30</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O15">
-        <f>Q15-N15*(N15+1)</f>
-        <v>-2</v>
-      </c>
-      <c r="P15">
-        <f>MOD(M15,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q15">
-        <f>ROUNDDOWN(M15/(2*$B$2+1),0)</f>
+        <f>S15-P15*(P15+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="R15">
+        <f>MOD(O15,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <f>ROUNDDOWN(O15/(2*$B$2+1),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>2</v>
       </c>
@@ -1052,33 +1133,36 @@
         <v>28</v>
       </c>
       <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
         <v>16</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>31</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O16">
-        <f>Q16-N16*(N16+1)</f>
-        <v>-2</v>
-      </c>
-      <c r="P16">
-        <f>MOD(M16,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q16">
-        <f>ROUNDDOWN(M16/(2*$B$2+1),0)</f>
+        <f>S16-P16*(P16+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="R16">
+        <f>MOD(O16,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>ROUNDDOWN(O16/(2*$B$2+1),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>2</v>
       </c>
@@ -1101,33 +1185,36 @@
         <v>29</v>
       </c>
       <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
         <v>16</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>32</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O17">
-        <f>Q17-N17*(N17+1)</f>
-        <v>-2</v>
-      </c>
-      <c r="P17">
-        <f>MOD(M17,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q17">
-        <f>ROUNDDOWN(M17/(2*$B$2+1),0)</f>
+        <f>S17-P17*(P17+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="R17">
+        <f>MOD(O17,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>ROUNDDOWN(O17/(2*$B$2+1),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
@@ -1150,33 +1237,36 @@
         <v>30</v>
       </c>
       <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>33</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O18">
-        <f>Q18-N18*(N18+1)</f>
-        <v>-2</v>
-      </c>
-      <c r="P18">
-        <f>MOD(M18,7)-$B$2</f>
-        <v>2</v>
-      </c>
       <c r="Q18">
-        <f>ROUNDDOWN(M18/(2*$B$2+1),0)</f>
+        <f>S18-P18*(P18+1)</f>
+        <v>-2</v>
+      </c>
+      <c r="R18">
+        <f>MOD(O18,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <f>ROUNDDOWN(O18/(2*$B$2+1),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>2</v>
       </c>
@@ -1199,33 +1289,36 @@
         <v>33</v>
       </c>
       <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
         <v>18</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>36</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O19">
-        <f>Q19-N19*(N19+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P19">
-        <f>MOD(M19,7)-$B$2</f>
-        <v>-2</v>
-      </c>
       <c r="Q19">
-        <f>ROUNDDOWN(M19/(2*$B$2+1),0)</f>
+        <f>S19-P19*(P19+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <f>MOD(O19,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S19">
+        <f>ROUNDDOWN(O19/(2*$B$2+1),0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>2</v>
       </c>
@@ -1248,33 +1341,36 @@
         <v>34</v>
       </c>
       <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="K20">
         <v>18</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>37</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O20">
-        <f>Q20-N20*(N20+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P20">
-        <f>MOD(M20,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q20">
-        <f>ROUNDDOWN(M20/(2*$B$2+1),0)</f>
+        <f>S20-P20*(P20+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <f>MOD(O20,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <f>ROUNDDOWN(O20/(2*$B$2+1),0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>2</v>
       </c>
@@ -1297,33 +1393,36 @@
         <v>35</v>
       </c>
       <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
         <v>18</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>38</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O21">
-        <f>Q21-N21*(N21+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P21">
-        <f>MOD(M21,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q21">
-        <f>ROUNDDOWN(M21/(2*$B$2+1),0)</f>
+        <f>S21-P21*(P21+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <f>MOD(O21,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>ROUNDDOWN(O21/(2*$B$2+1),0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>2</v>
       </c>
@@ -1346,33 +1445,36 @@
         <v>36</v>
       </c>
       <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
         <v>18</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>39</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O22">
-        <f>Q22-N22*(N22+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P22">
-        <f>MOD(M22,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q22">
-        <f>ROUNDDOWN(M22/(2*$B$2+1),0)</f>
+        <f>S22-P22*(P22+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <f>MOD(O22,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f>ROUNDDOWN(O22/(2*$B$2+1),0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>2</v>
       </c>
@@ -1395,33 +1497,36 @@
         <v>37</v>
       </c>
       <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
         <v>18</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>40</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O23">
-        <f>Q23-N23*(N23+1)</f>
-        <v>-1</v>
-      </c>
-      <c r="P23">
-        <f>MOD(M23,7)-$B$2</f>
-        <v>2</v>
-      </c>
       <c r="Q23">
-        <f>ROUNDDOWN(M23/(2*$B$2+1),0)</f>
+        <f>S23-P23*(P23+1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R23">
+        <f>MOD(O23,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <f>ROUNDDOWN(O23/(2*$B$2+1),0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>2</v>
       </c>
@@ -1444,33 +1549,36 @@
         <v>40</v>
       </c>
       <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
         <v>20</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>43</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O24">
-        <f>Q24-N24*(N24+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f>MOD(M24,7)-$B$2</f>
-        <v>-2</v>
-      </c>
       <c r="Q24">
-        <f>ROUNDDOWN(M24/(2*$B$2+1),0)</f>
+        <f>S24-P24*(P24+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>MOD(O24,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S24">
+        <f>ROUNDDOWN(O24/(2*$B$2+1),0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>2</v>
       </c>
@@ -1493,33 +1601,36 @@
         <v>41</v>
       </c>
       <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
         <v>20</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>44</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O25">
-        <f>Q25-N25*(N25+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f>MOD(M25,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q25">
-        <f>ROUNDDOWN(M25/(2*$B$2+1),0)</f>
+        <f>S25-P25*(P25+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>MOD(O25,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <f>ROUNDDOWN(O25/(2*$B$2+1),0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>2</v>
       </c>
@@ -1542,33 +1653,36 @@
         <v>42</v>
       </c>
       <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26">
         <v>20</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>45</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O26">
-        <f>Q26-N26*(N26+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f>MOD(M26,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q26">
-        <f>ROUNDDOWN(M26/(2*$B$2+1),0)</f>
+        <f>S26-P26*(P26+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>MOD(O26,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>ROUNDDOWN(O26/(2*$B$2+1),0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2</v>
       </c>
@@ -1591,33 +1705,36 @@
         <v>43</v>
       </c>
       <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
         <v>20</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>46</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O27">
-        <f>Q27-N27*(N27+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f>MOD(M27,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q27">
-        <f>ROUNDDOWN(M27/(2*$B$2+1),0)</f>
+        <f>S27-P27*(P27+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>MOD(O27,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f>ROUNDDOWN(O27/(2*$B$2+1),0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>2</v>
       </c>
@@ -1640,33 +1757,36 @@
         <v>44</v>
       </c>
       <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
         <v>20</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>47</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O28">
-        <f>Q28-N28*(N28+1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f>MOD(M28,7)-$B$2</f>
-        <v>2</v>
-      </c>
       <c r="Q28">
-        <f>ROUNDDOWN(M28/(2*$B$2+1),0)</f>
+        <f>S28-P28*(P28+1)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>MOD(O28,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <f>ROUNDDOWN(O28/(2*$B$2+1),0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>2</v>
       </c>
@@ -1688,34 +1808,34 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>22</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="M29">
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O29">
         <v>50</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O29">
-        <f>Q29-N29*(N29+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <f>MOD(M29,7)-$B$2</f>
-        <v>-2</v>
-      </c>
       <c r="Q29">
-        <f>ROUNDDOWN(M29/(2*$B$2+1),0)</f>
+        <f>S29-P29*(P29+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <f>MOD(O29,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S29">
+        <f>ROUNDDOWN(O29/(2*$B$2+1),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>2</v>
       </c>
@@ -1737,34 +1857,34 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>22</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>51</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O30">
-        <f>Q30-N30*(N30+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <f>MOD(M30,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q30">
-        <f>ROUNDDOWN(M30/(2*$B$2+1),0)</f>
+        <f>S30-P30*(P30+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f>MOD(O30,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S30">
+        <f>ROUNDDOWN(O30/(2*$B$2+1),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>2</v>
       </c>
@@ -1786,34 +1906,34 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>22</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>52</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O31">
-        <f>Q31-N31*(N31+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <f>MOD(M31,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q31">
-        <f>ROUNDDOWN(M31/(2*$B$2+1),0)</f>
+        <f>S31-P31*(P31+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f>MOD(O31,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>ROUNDDOWN(O31/(2*$B$2+1),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>2</v>
       </c>
@@ -1835,34 +1955,34 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>22</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>53</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O32">
-        <f>Q32-N32*(N32+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <f>MOD(M32,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q32">
-        <f>ROUNDDOWN(M32/(2*$B$2+1),0)</f>
+        <f>S32-P32*(P32+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f>MOD(O32,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f>ROUNDDOWN(O32/(2*$B$2+1),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D33">
         <v>2</v>
       </c>
@@ -1884,34 +2004,34 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>22</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>54</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O33">
-        <f>Q33-N33*(N33+1)</f>
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <f>MOD(M33,7)-$B$2</f>
-        <v>2</v>
-      </c>
       <c r="Q33">
-        <f>ROUNDDOWN(M33/(2*$B$2+1),0)</f>
+        <f>S33-P33*(P33+1)</f>
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <f>MOD(O33,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <f>ROUNDDOWN(O33/(2*$B$2+1),0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>2</v>
       </c>
@@ -1933,34 +2053,34 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>24</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>57</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O34">
-        <f>Q34-N34*(N34+1)</f>
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <f>MOD(M34,7)-$B$2</f>
-        <v>-2</v>
-      </c>
       <c r="Q34">
-        <f>ROUNDDOWN(M34/(2*$B$2+1),0)</f>
+        <f>S34-P34*(P34+1)</f>
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <f>MOD(O34,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S34">
+        <f>ROUNDDOWN(O34/(2*$B$2+1),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D35">
         <v>2</v>
       </c>
@@ -1982,34 +2102,34 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>24</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>58</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O35">
-        <f>Q35-N35*(N35+1)</f>
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <f>MOD(M35,7)-$B$2</f>
-        <v>-1</v>
-      </c>
       <c r="Q35">
-        <f>ROUNDDOWN(M35/(2*$B$2+1),0)</f>
+        <f>S35-P35*(P35+1)</f>
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <f>MOD(O35,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <f>ROUNDDOWN(O35/(2*$B$2+1),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>2</v>
       </c>
@@ -2031,34 +2151,34 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>24</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>59</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O36">
-        <f>Q36-N36*(N36+1)</f>
-        <v>2</v>
-      </c>
-      <c r="P36">
-        <f>MOD(M36,7)-$B$2</f>
-        <v>0</v>
-      </c>
       <c r="Q36">
-        <f>ROUNDDOWN(M36/(2*$B$2+1),0)</f>
+        <f>S36-P36*(P36+1)</f>
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <f>MOD(O36,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>ROUNDDOWN(O36/(2*$B$2+1),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D37">
         <v>2</v>
       </c>
@@ -2080,34 +2200,34 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>24</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>60</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O37">
-        <f>Q37-N37*(N37+1)</f>
-        <v>2</v>
-      </c>
-      <c r="P37">
-        <f>MOD(M37,7)-$B$2</f>
-        <v>1</v>
-      </c>
       <c r="Q37">
-        <f>ROUNDDOWN(M37/(2*$B$2+1),0)</f>
+        <f>S37-P37*(P37+1)</f>
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <f>MOD(O37,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <f>ROUNDDOWN(O37/(2*$B$2+1),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>2</v>
       </c>
@@ -2129,34 +2249,34 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>24</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>61</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O38">
-        <f>Q38-N38*(N38+1)</f>
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <f>MOD(M38,7)-$B$2</f>
-        <v>2</v>
-      </c>
       <c r="Q38">
-        <f>ROUNDDOWN(M38/(2*$B$2+1),0)</f>
+        <f>S38-P38*(P38+1)</f>
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <f>MOD(O38,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <f>ROUNDDOWN(O38/(2*$B$2+1),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D39">
         <v>3</v>
       </c>
@@ -2178,34 +2298,34 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J39">
-        <v>25</v>
-      </c>
       <c r="K39">
+        <v>25</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>63</v>
       </c>
-      <c r="N39">
-        <f t="shared" ref="N39:N87" si="4">ROUND((-1 + SQRT(1 + 4 * Q39)) / 2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O87" si="5">Q39-N39*(N39+1)</f>
+      <c r="P39">
+        <f t="shared" ref="P39:P87" si="5">ROUND((-1 + SQRT(1 + 4 * S39)) / 2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q87" si="6">S39-P39*(P39+1)</f>
         <v>-3</v>
       </c>
-      <c r="P39">
-        <f>MOD(M39,7)-$B$2</f>
+      <c r="R39">
+        <f>MOD(O39,7)-$B$2</f>
         <v>-3</v>
       </c>
-      <c r="Q39">
-        <f>ROUNDDOWN(M39/(2*$B$2+1),0)</f>
+      <c r="S39">
+        <f>ROUNDDOWN(O39/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D40">
         <v>3</v>
       </c>
@@ -2227,34 +2347,34 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="J40">
-        <v>25</v>
-      </c>
       <c r="K40">
+        <v>25</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>64</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="5"/>
+      <c r="P40">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P40">
-        <f>MOD(M40,7)-$B$2</f>
-        <v>-2</v>
-      </c>
-      <c r="Q40">
-        <f>ROUNDDOWN(M40/(2*$B$2+1),0)</f>
+      <c r="R40">
+        <f>MOD(O40,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S40">
+        <f>ROUNDDOWN(O40/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D41">
         <v>3</v>
       </c>
@@ -2265,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G87" si="6">D41*(D41+1)+E41</f>
+        <f t="shared" ref="G41:G87" si="7">D41*(D41+1)+E41</f>
         <v>9</v>
       </c>
       <c r="H41">
@@ -2276,34 +2396,34 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="J41">
-        <v>25</v>
-      </c>
       <c r="K41">
+        <v>25</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>65</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="5"/>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P41">
-        <f>MOD(M41,7)-$B$2</f>
-        <v>-1</v>
-      </c>
-      <c r="Q41">
-        <f>ROUNDDOWN(M41/(2*$B$2+1),0)</f>
+      <c r="R41">
+        <f>MOD(O41,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <f>ROUNDDOWN(O41/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D42">
         <v>3</v>
       </c>
@@ -2314,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H42">
@@ -2325,34 +2445,34 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="J42">
-        <v>25</v>
-      </c>
       <c r="K42">
+        <v>25</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>66</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="5"/>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P42">
-        <f>MOD(M42,7)-$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <f>ROUNDDOWN(M42/(2*$B$2+1),0)</f>
+      <c r="R42">
+        <f>MOD(O42,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>ROUNDDOWN(O42/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D43">
         <v>3</v>
       </c>
@@ -2363,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H43">
@@ -2374,34 +2494,34 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="J43">
-        <v>25</v>
-      </c>
       <c r="K43">
+        <v>25</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>67</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="5"/>
+      <c r="P43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P43">
-        <f>MOD(M43,7)-$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <f>ROUNDDOWN(M43/(2*$B$2+1),0)</f>
+      <c r="R43">
+        <f>MOD(O43,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <f>ROUNDDOWN(O43/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>3</v>
       </c>
@@ -2412,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H44">
@@ -2423,34 +2543,34 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="J44">
-        <v>25</v>
-      </c>
       <c r="K44">
+        <v>25</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>68</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="5"/>
+      <c r="P44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P44">
-        <f>MOD(M44,7)-$B$2</f>
-        <v>2</v>
-      </c>
-      <c r="Q44">
-        <f>ROUNDDOWN(M44/(2*$B$2+1),0)</f>
+      <c r="R44">
+        <f>MOD(O44,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <f>ROUNDDOWN(O44/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D45">
         <v>3</v>
       </c>
@@ -2461,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H45">
@@ -2472,34 +2592,34 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="J45">
-        <v>25</v>
-      </c>
       <c r="K45">
+        <v>25</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>69</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="5"/>
+      <c r="P45">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P45">
-        <f>MOD(M45,7)-$B$2</f>
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <f>ROUNDDOWN(M45/(2*$B$2+1),0)</f>
+      <c r="R45">
+        <f>MOD(O45,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <f>ROUNDDOWN(O45/(2*$B$2+1),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D46">
         <v>3</v>
       </c>
@@ -2510,7 +2630,7 @@
         <v>-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H46">
@@ -2521,34 +2641,34 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="J46">
-        <v>25</v>
-      </c>
       <c r="K46">
+        <v>25</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>70</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P46">
-        <f>MOD(M46,7)-$B$2</f>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R46">
+        <f>MOD(O46,7)-$B$2</f>
         <v>-3</v>
       </c>
-      <c r="Q46">
-        <f>ROUNDDOWN(M46/(2*$B$2+1),0)</f>
+      <c r="S46">
+        <f>ROUNDDOWN(O46/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D47">
         <v>3</v>
       </c>
@@ -2559,7 +2679,7 @@
         <v>-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H47">
@@ -2570,34 +2690,34 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="J47">
-        <v>25</v>
-      </c>
       <c r="K47">
+        <v>25</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>71</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P47">
-        <f>MOD(M47,7)-$B$2</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <f>ROUNDDOWN(M47/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R47">
+        <f>MOD(O47,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S47">
+        <f>ROUNDDOWN(O47/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D48">
         <v>3</v>
       </c>
@@ -2608,7 +2728,7 @@
         <v>-1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H48">
@@ -2619,34 +2739,34 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="J48">
-        <v>25</v>
-      </c>
       <c r="K48">
+        <v>25</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>72</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P48">
-        <f>MOD(M48,7)-$B$2</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <f>ROUNDDOWN(M48/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R48">
+        <f>MOD(O48,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S48">
+        <f>ROUNDDOWN(O48/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D49">
         <v>3</v>
       </c>
@@ -2657,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H49">
@@ -2668,34 +2788,34 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="J49">
-        <v>25</v>
-      </c>
       <c r="K49">
+        <v>25</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>73</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P49">
-        <f>MOD(M49,7)-$B$2</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <f>ROUNDDOWN(M49/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R49">
+        <f>MOD(O49,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f>ROUNDDOWN(O49/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D50">
         <v>3</v>
       </c>
@@ -2706,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H50">
@@ -2717,34 +2837,34 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="J50">
-        <v>25</v>
-      </c>
       <c r="K50">
+        <v>25</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>74</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P50">
-        <f>MOD(M50,7)-$B$2</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <f>ROUNDDOWN(M50/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R50">
+        <f>MOD(O50,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f>ROUNDDOWN(O50/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D51">
         <v>3</v>
       </c>
@@ -2755,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H51">
@@ -2766,34 +2886,34 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="J51">
-        <v>25</v>
-      </c>
       <c r="K51">
+        <v>25</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>75</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P51">
-        <f>MOD(M51,7)-$B$2</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <f>ROUNDDOWN(M51/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R51">
+        <f>MOD(O51,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <f>ROUNDDOWN(O51/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D52">
         <v>3</v>
       </c>
@@ -2804,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H52">
@@ -2815,34 +2935,34 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="J52">
-        <v>25</v>
-      </c>
       <c r="K52">
+        <v>25</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>76</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
       <c r="P52">
-        <f>MOD(M52,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q52">
-        <f>ROUNDDOWN(M52/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R52">
+        <f>MOD(O52,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <f>ROUNDDOWN(O52/(2*$B$2+1),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D53">
         <v>3</v>
       </c>
@@ -2853,7 +2973,7 @@
         <v>-3</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H53">
@@ -2864,34 +2984,34 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="J53">
-        <v>25</v>
-      </c>
       <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>77</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P53">
-        <f>MOD(M53,7)-$B$2</f>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R53">
+        <f>MOD(O53,7)-$B$2</f>
         <v>-3</v>
       </c>
-      <c r="Q53">
-        <f>ROUNDDOWN(M53/(2*$B$2+1),0)</f>
+      <c r="S53">
+        <f>ROUNDDOWN(O53/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D54">
         <v>3</v>
       </c>
@@ -2902,7 +3022,7 @@
         <v>-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H54">
@@ -2913,34 +3033,34 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J54">
-        <v>25</v>
-      </c>
       <c r="K54">
+        <v>25</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>78</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P54">
-        <f>MOD(M54,7)-$B$2</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <f>ROUNDDOWN(M54/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R54">
+        <f>MOD(O54,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S54">
+        <f>ROUNDDOWN(O54/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D55">
         <v>3</v>
       </c>
@@ -2951,7 +3071,7 @@
         <v>-1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H55">
@@ -2962,34 +3082,34 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="J55">
-        <v>25</v>
-      </c>
       <c r="K55">
+        <v>25</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>79</v>
       </c>
-      <c r="N55">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P55">
-        <f>MOD(M55,7)-$B$2</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <f>ROUNDDOWN(M55/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R55">
+        <f>MOD(O55,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S55">
+        <f>ROUNDDOWN(O55/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D56">
         <v>3</v>
       </c>
@@ -3000,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H56">
@@ -3011,34 +3131,34 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="J56">
-        <v>25</v>
-      </c>
       <c r="K56">
+        <v>25</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>80</v>
       </c>
-      <c r="N56">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P56">
-        <f>MOD(M56,7)-$B$2</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <f>ROUNDDOWN(M56/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R56">
+        <f>MOD(O56,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f>ROUNDDOWN(O56/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D57">
         <v>3</v>
       </c>
@@ -3049,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H57">
@@ -3060,34 +3180,34 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="J57">
-        <v>25</v>
-      </c>
       <c r="K57">
+        <v>25</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>81</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P57">
-        <f>MOD(M57,7)-$B$2</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q57">
-        <f>ROUNDDOWN(M57/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <f>MOD(O57,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <f>ROUNDDOWN(O57/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D58">
         <v>3</v>
       </c>
@@ -3098,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H58">
@@ -3109,34 +3229,34 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="J58">
-        <v>25</v>
-      </c>
       <c r="K58">
+        <v>25</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>82</v>
       </c>
-      <c r="N58">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P58">
-        <f>MOD(M58,7)-$B$2</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <f>ROUNDDOWN(M58/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R58">
+        <f>MOD(O58,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <f>ROUNDDOWN(O58/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D59">
         <v>3</v>
       </c>
@@ -3147,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H59">
@@ -3158,34 +3278,34 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J59">
-        <v>25</v>
-      </c>
       <c r="K59">
+        <v>25</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>83</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
       <c r="P59">
-        <f>MOD(M59,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q59">
-        <f>ROUNDDOWN(M59/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="R59">
+        <f>MOD(O59,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <f>ROUNDDOWN(O59/(2*$B$2+1),0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D60">
         <v>3</v>
       </c>
@@ -3196,7 +3316,7 @@
         <v>-3</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H60">
@@ -3207,34 +3327,34 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="J60">
-        <v>25</v>
-      </c>
       <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>84</v>
       </c>
-      <c r="N60">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P60">
-        <f>MOD(M60,7)-$B$2</f>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f>MOD(O60,7)-$B$2</f>
         <v>-3</v>
       </c>
-      <c r="Q60">
-        <f>ROUNDDOWN(M60/(2*$B$2+1),0)</f>
+      <c r="S60">
+        <f>ROUNDDOWN(O60/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>3</v>
       </c>
@@ -3245,7 +3365,7 @@
         <v>-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H61">
@@ -3256,34 +3376,34 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="J61">
-        <v>25</v>
-      </c>
       <c r="K61">
+        <v>25</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>85</v>
       </c>
-      <c r="N61">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P61">
-        <f>MOD(M61,7)-$B$2</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <f>ROUNDDOWN(M61/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>MOD(O61,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S61">
+        <f>ROUNDDOWN(O61/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D62">
         <v>3</v>
       </c>
@@ -3294,7 +3414,7 @@
         <v>-1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H62">
@@ -3305,34 +3425,34 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="J62">
-        <v>25</v>
-      </c>
       <c r="K62">
+        <v>25</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>86</v>
       </c>
-      <c r="N62">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P62">
-        <f>MOD(M62,7)-$B$2</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <f>ROUNDDOWN(M62/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f>MOD(O62,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S62">
+        <f>ROUNDDOWN(O62/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D63">
         <v>3</v>
       </c>
@@ -3343,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H63">
@@ -3354,34 +3474,34 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="J63">
-        <v>25</v>
-      </c>
       <c r="K63">
+        <v>25</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>87</v>
       </c>
-      <c r="N63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P63">
-        <f>MOD(M63,7)-$B$2</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <f>ROUNDDOWN(M63/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f>MOD(O63,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f>ROUNDDOWN(O63/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D64">
         <v>3</v>
       </c>
@@ -3392,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H64">
@@ -3403,34 +3523,34 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="J64">
-        <v>25</v>
-      </c>
       <c r="K64">
+        <v>25</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>88</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P64">
-        <f>MOD(M64,7)-$B$2</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <f>ROUNDDOWN(M64/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f>MOD(O64,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <f>ROUNDDOWN(O64/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>3</v>
       </c>
@@ -3441,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H65">
@@ -3452,34 +3572,34 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="J65">
-        <v>25</v>
-      </c>
       <c r="K65">
+        <v>25</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>89</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P65">
-        <f>MOD(M65,7)-$B$2</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <f>ROUNDDOWN(M65/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f>MOD(O65,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <f>ROUNDDOWN(O65/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>3</v>
       </c>
@@ -3490,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H66">
@@ -3501,34 +3621,34 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="J66">
-        <v>25</v>
-      </c>
       <c r="K66">
+        <v>25</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>90</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="P66">
-        <f>MOD(M66,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q66">
-        <f>ROUNDDOWN(M66/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f>MOD(O66,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <f>ROUNDDOWN(O66/(2*$B$2+1),0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>3</v>
       </c>
@@ -3539,7 +3659,7 @@
         <v>-3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H67">
@@ -3550,34 +3670,34 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="J67">
-        <v>25</v>
-      </c>
       <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>91</v>
       </c>
-      <c r="N67">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="P67">
-        <f>MOD(M67,7)-$B$2</f>
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <f>MOD(O67,7)-$B$2</f>
         <v>-3</v>
       </c>
-      <c r="Q67">
-        <f>ROUNDDOWN(M67/(2*$B$2+1),0)</f>
+      <c r="S67">
+        <f>ROUNDDOWN(O67/(2*$B$2+1),0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>3</v>
       </c>
@@ -3588,7 +3708,7 @@
         <v>-2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H68">
@@ -3599,34 +3719,34 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="J68">
-        <v>25</v>
-      </c>
       <c r="K68">
+        <v>25</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>92</v>
       </c>
-      <c r="N68">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="P68">
-        <f>MOD(M68,7)-$B$2</f>
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <f>ROUNDDOWN(M68/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <f>MOD(O68,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S68">
+        <f>ROUNDDOWN(O68/(2*$B$2+1),0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>3</v>
       </c>
@@ -3637,7 +3757,7 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H69">
@@ -3645,37 +3765,37 @@
         <v>93</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I87" si="7">(D69*(D69+1)+E69)*(2*$B$2+1)+F69</f>
+        <f t="shared" ref="I69:I87" si="8">(D69*(D69+1)+E69)*(2*$B$2+1)+F69</f>
         <v>90</v>
       </c>
-      <c r="J69">
-        <v>25</v>
-      </c>
       <c r="K69">
-        <f t="shared" ref="K69:K87" si="8">I69-J69</f>
+        <v>25</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ref="L69:L87" si="9">I69-K69</f>
         <v>65</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>93</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="P69">
-        <f>MOD(M69,7)-$B$2</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <f>ROUNDDOWN(M69/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <f>MOD(O69,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S69">
+        <f>ROUNDDOWN(O69/(2*$B$2+1),0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D70">
         <v>3</v>
       </c>
@@ -3686,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H70">
@@ -3694,48 +3814,48 @@
         <v>94</v>
       </c>
       <c r="I70">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="K70">
+        <v>25</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="O70">
+        <v>94</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f>MOD(O70,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f>ROUNDDOWN(O70/(2*$B$2+1),0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="J70">
-        <v>25</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="M70">
-        <v>94</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <f>MOD(M70,7)-$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <f>ROUNDDOWN(M70/(2*$B$2+1),0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H71">
@@ -3743,48 +3863,48 @@
         <v>95</v>
       </c>
       <c r="I71">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="K71">
+        <v>25</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="O71">
+        <v>95</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f>MOD(O71,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <f>ROUNDDOWN(O71/(2*$B$2+1),0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="J71">
-        <v>25</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="M71">
-        <v>95</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <f>MOD(M71,7)-$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <f>ROUNDDOWN(M71/(2*$B$2+1),0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H72">
@@ -3792,48 +3912,48 @@
         <v>96</v>
       </c>
       <c r="I72">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="O72">
+        <v>96</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <f>MOD(O72,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <f>ROUNDDOWN(O72/(2*$B$2+1),0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="J72">
-        <v>25</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="M72">
-        <v>96</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <f>MOD(M72,7)-$B$2</f>
-        <v>2</v>
-      </c>
-      <c r="Q72">
-        <f>ROUNDDOWN(M72/(2*$B$2+1),0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H73">
@@ -3841,37 +3961,37 @@
         <v>97</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="J73">
-        <v>25</v>
-      </c>
       <c r="K73">
-        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>97</v>
       </c>
-      <c r="N73">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="P73">
-        <f>MOD(M73,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q73">
-        <f>ROUNDDOWN(M73/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <f>MOD(O73,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <f>ROUNDDOWN(O73/(2*$B$2+1),0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>3</v>
       </c>
@@ -3882,7 +4002,7 @@
         <v>-3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="H74">
@@ -3890,48 +4010,48 @@
         <v>98</v>
       </c>
       <c r="I74">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="K74">
+        <v>25</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="O74">
+        <v>98</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <f>MOD(O74,7)-$B$2</f>
+        <v>-3</v>
+      </c>
+      <c r="S74">
+        <f>ROUNDDOWN(O74/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>-2</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="J74">
-        <v>25</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="M74">
-        <v>98</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P74">
-        <f>MOD(M74,7)-$B$2</f>
-        <v>-3</v>
-      </c>
-      <c r="Q74">
-        <f>ROUNDDOWN(M74/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>-2</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H75">
@@ -3939,48 +4059,48 @@
         <v>99</v>
       </c>
       <c r="I75">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="K75">
+        <v>25</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="O75">
+        <v>99</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <f>MOD(O75,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S75">
+        <f>ROUNDDOWN(O75/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>-1</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="J75">
-        <v>25</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="M75">
-        <v>99</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P75">
-        <f>MOD(M75,7)-$B$2</f>
-        <v>-2</v>
-      </c>
-      <c r="Q75">
-        <f>ROUNDDOWN(M75/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>-1</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H76">
@@ -3988,48 +4108,48 @@
         <v>100</v>
       </c>
       <c r="I76">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="K76">
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="O76">
+        <v>100</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <f>MOD(O76,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S76">
+        <f>ROUNDDOWN(O76/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="J76">
-        <v>25</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="M76">
-        <v>100</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P76">
-        <f>MOD(M76,7)-$B$2</f>
-        <v>-1</v>
-      </c>
-      <c r="Q76">
-        <f>ROUNDDOWN(M76/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H77">
@@ -4037,48 +4157,48 @@
         <v>101</v>
       </c>
       <c r="I77">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="K77">
+        <v>25</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="O77">
+        <v>101</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <f>MOD(O77,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f>ROUNDDOWN(O77/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="J77">
-        <v>25</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="M77">
-        <v>101</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P77">
-        <f>MOD(M77,7)-$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <f>ROUNDDOWN(M77/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H78">
@@ -4086,48 +4206,48 @@
         <v>102</v>
       </c>
       <c r="I78">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="K78">
+        <v>25</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="O78">
+        <v>102</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <f>MOD(O78,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <f>ROUNDDOWN(O78/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="J78">
-        <v>25</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="M78">
-        <v>102</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <f>MOD(M78,7)-$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <f>ROUNDDOWN(M78/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H79">
@@ -4135,48 +4255,48 @@
         <v>103</v>
       </c>
       <c r="I79">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <v>25</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="O79">
+        <v>103</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <f>MOD(O79,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <f>ROUNDDOWN(O79/(2*$B$2+1),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="J79">
-        <v>25</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="M79">
-        <v>103</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P79">
-        <f>MOD(M79,7)-$B$2</f>
-        <v>2</v>
-      </c>
-      <c r="Q79">
-        <f>ROUNDDOWN(M79/(2*$B$2+1),0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H80">
@@ -4184,37 +4304,37 @@
         <v>104</v>
       </c>
       <c r="I80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
-      <c r="J80">
-        <v>25</v>
-      </c>
       <c r="K80">
-        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>104</v>
       </c>
-      <c r="N80">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
       <c r="P80">
-        <f>MOD(M80,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q80">
-        <f>ROUNDDOWN(M80/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <f>MOD(O80,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <f>ROUNDDOWN(O80/(2*$B$2+1),0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D81">
         <v>3</v>
       </c>
@@ -4225,7 +4345,7 @@
         <v>-3</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H81">
@@ -4233,48 +4353,48 @@
         <v>105</v>
       </c>
       <c r="I81">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="K81">
+        <v>25</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="O81">
+        <v>105</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <f>MOD(O81,7)-$B$2</f>
+        <v>-3</v>
+      </c>
+      <c r="S81">
+        <f>ROUNDDOWN(O81/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>-2</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="J81">
-        <v>25</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="M81">
-        <v>105</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <f>MOD(M81,7)-$B$2</f>
-        <v>-3</v>
-      </c>
-      <c r="Q81">
-        <f>ROUNDDOWN(M81/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
-      </c>
-      <c r="F82">
-        <v>-2</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H82">
@@ -4282,48 +4402,48 @@
         <v>106</v>
       </c>
       <c r="I82">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="O82">
+        <v>106</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <f>MOD(O82,7)-$B$2</f>
+        <v>-2</v>
+      </c>
+      <c r="S82">
+        <f>ROUNDDOWN(O82/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>-1</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-      <c r="J82">
-        <v>25</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="M82">
-        <v>106</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P82">
-        <f>MOD(M82,7)-$B$2</f>
-        <v>-2</v>
-      </c>
-      <c r="Q82">
-        <f>ROUNDDOWN(M82/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>-1</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H83">
@@ -4331,48 +4451,48 @@
         <v>107</v>
       </c>
       <c r="I83">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="K83">
+        <v>25</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="O83">
+        <v>107</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R83">
+        <f>MOD(O83,7)-$B$2</f>
+        <v>-1</v>
+      </c>
+      <c r="S83">
+        <f>ROUNDDOWN(O83/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-      <c r="J83">
-        <v>25</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="M83">
-        <v>107</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P83">
-        <f>MOD(M83,7)-$B$2</f>
-        <v>-1</v>
-      </c>
-      <c r="Q83">
-        <f>ROUNDDOWN(M83/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H84">
@@ -4380,48 +4500,48 @@
         <v>108</v>
       </c>
       <c r="I84">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="K84">
+        <v>25</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="O84">
+        <v>108</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <f>MOD(O84,7)-$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f>ROUNDDOWN(O84/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="J84">
-        <v>25</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="M84">
-        <v>108</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P84">
-        <f>MOD(M84,7)-$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <f>ROUNDDOWN(M84/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H85">
@@ -4429,48 +4549,48 @@
         <v>109</v>
       </c>
       <c r="I85">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="K85">
+        <v>25</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="O85">
+        <v>109</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <f>MOD(O85,7)-$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <f>ROUNDDOWN(O85/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="J85">
-        <v>25</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="M85">
-        <v>109</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <f>MOD(M85,7)-$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <f>ROUNDDOWN(M85/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H86">
@@ -4478,48 +4598,48 @@
         <v>110</v>
       </c>
       <c r="I86">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="K86">
+        <v>25</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="O86">
+        <v>110</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <f>MOD(O86,7)-$B$2</f>
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <f>ROUNDDOWN(O86/(2*$B$2+1),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="J86">
-        <v>25</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="M86">
-        <v>110</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <f>MOD(M86,7)-$B$2</f>
-        <v>2</v>
-      </c>
-      <c r="Q86">
-        <f>ROUNDDOWN(M86/(2*$B$2+1),0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H87">
@@ -4527,33 +4647,33 @@
         <v>111</v>
       </c>
       <c r="I87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="J87">
-        <v>25</v>
-      </c>
       <c r="K87">
-        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>111</v>
       </c>
-      <c r="N87">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="P87">
-        <f>MOD(M87,7)-$B$2</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q87">
-        <f>ROUNDDOWN(M87/(2*$B$2+1),0)</f>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <f>MOD(O87,7)-$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <f>ROUNDDOWN(O87/(2*$B$2+1),0)</f>
         <v>15</v>
       </c>
     </row>
